--- a/data/trans_dic/P64D$andando_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P64D$andando_2023-Clase-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2169586015070268</v>
+        <v>0.2174969974715173</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.276021803552152</v>
+        <v>0.2735436283528691</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2559011465426813</v>
+        <v>0.2575524584428753</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3116726112669989</v>
+        <v>0.3175170465864746</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3639673440561378</v>
+        <v>0.3634904919423813</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3227015835215303</v>
+        <v>0.3252580492721791</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1605827048765668</v>
+        <v>0.1611047664815902</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2665198301541122</v>
+        <v>0.2647317689035378</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2180895926501215</v>
+        <v>0.2203459283232578</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2557248467100964</v>
+        <v>0.2517953516841528</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3664474031088242</v>
+        <v>0.3674159724857215</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2942376547804159</v>
+        <v>0.2889284077328881</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1951058825260768</v>
+        <v>0.1984425656052109</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3697319404026002</v>
+        <v>0.373114025429055</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2518912723547668</v>
+        <v>0.25181339306691</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3075054179799657</v>
+        <v>0.3104124068898801</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5576900276350724</v>
+        <v>0.5535714217945737</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3530561582240346</v>
+        <v>0.3543906047349322</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.2439862683706599</v>
+        <v>0.24398626837066</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.401255848739888</v>
+        <v>0.4012558487398881</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3124018937736134</v>
+        <v>0.3124018937736135</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2068514818260685</v>
+        <v>0.2077185295708327</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3606571927053733</v>
+        <v>0.3596549894331995</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2850723827455939</v>
+        <v>0.2845227575155509</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2864260220399303</v>
+        <v>0.2877579854816575</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4458038064297083</v>
+        <v>0.4394904159703802</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3435476766486963</v>
+        <v>0.3435410767120407</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.101604660466551</v>
+        <v>0.09837990271349668</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3225730100999876</v>
+        <v>0.3238178737647376</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2183725868833466</v>
+        <v>0.2222692314937557</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1971076674118906</v>
+        <v>0.1925101508174086</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4253959623896266</v>
+        <v>0.4263965986782094</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2937378200350614</v>
+        <v>0.2941670165941151</v>
       </c>
     </row>
     <row r="19">
@@ -842,10 +842,10 @@
         <v>0.2252391636983563</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.3631926153940992</v>
+        <v>0.3631926153940991</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.2855797165470159</v>
+        <v>0.2855797165470158</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2053432105356274</v>
+        <v>0.2023699758894282</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3400783417174403</v>
+        <v>0.3425832036635907</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2708567676731776</v>
+        <v>0.2695192664469186</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2461260690304237</v>
+        <v>0.2463844452411358</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3852823484839125</v>
+        <v>0.3857165119303997</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3016082912507132</v>
+        <v>0.3011198933518892</v>
       </c>
     </row>
     <row r="22">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>80821</v>
+        <v>81021</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>90599</v>
+        <v>89786</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>179322</v>
+        <v>180479</v>
       </c>
     </row>
     <row r="7">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>116103</v>
+        <v>118280</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>119466</v>
+        <v>119309</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>226132</v>
+        <v>227924</v>
       </c>
     </row>
     <row r="8">
@@ -1094,13 +1094,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>51001</v>
+        <v>51167</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>72255</v>
+        <v>71770</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>128390</v>
+        <v>129719</v>
       </c>
     </row>
     <row r="11">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>81218</v>
+        <v>79970</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>99346</v>
+        <v>99608</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>173219</v>
+        <v>170093</v>
       </c>
     </row>
     <row r="12">
@@ -1166,13 +1166,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>52404</v>
+        <v>53301</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>30204</v>
+        <v>30480</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>88234</v>
+        <v>88207</v>
       </c>
     </row>
     <row r="15">
@@ -1183,13 +1183,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>82594</v>
+        <v>83375</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>45558</v>
+        <v>45222</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>123671</v>
+        <v>124138</v>
       </c>
     </row>
     <row r="16">
@@ -1238,13 +1238,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>127358</v>
+        <v>127891</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>170978</v>
+        <v>170503</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>310663</v>
+        <v>310064</v>
       </c>
     </row>
     <row r="19">
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>176351</v>
+        <v>177171</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>211344</v>
+        <v>208351</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>374388</v>
+        <v>374380</v>
       </c>
     </row>
     <row r="20">
@@ -1310,13 +1310,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>31108</v>
+        <v>30121</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>99017</v>
+        <v>99399</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>133890</v>
+        <v>136279</v>
       </c>
     </row>
     <row r="23">
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>60348</v>
+        <v>58940</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>130580</v>
+        <v>130887</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>180099</v>
+        <v>180362</v>
       </c>
     </row>
     <row r="24">
@@ -1382,13 +1382,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>386163</v>
+        <v>380572</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>497215</v>
+        <v>500878</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>905375</v>
+        <v>900904</v>
       </c>
     </row>
     <row r="27">
@@ -1399,13 +1399,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>462858</v>
+        <v>463344</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>563306</v>
+        <v>563941</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1008166</v>
+        <v>1006534</v>
       </c>
     </row>
     <row r="28">
